--- a/ExoplanetCatalog_Exoclock.xlsx
+++ b/ExoplanetCatalog_Exoclock.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timlf\PycharmProjects\Semester_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\timlf\Tim Daten\Documents\GitHub\Semester_Project_Tim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691B0B8-C6AB-4C3C-98C8-B8E9196C434C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF913B2A-5C35-437D-A7F5-B487E7EF591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6556,7 +6569,7 @@
     <t>05:37:09.8851</t>
   </si>
   <si>
-    <t>duration hours [hours]</t>
+    <t>duration [hours]</t>
   </si>
 </sst>
 </file>
@@ -6592,8 +6605,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6876,8 +6890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K777"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,7 +6956,7 @@
       <c r="G2">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>0.73654624999999996</v>
       </c>
       <c r="I2">
